--- a/TCs/Huy_Testcase.xlsx
+++ b/TCs/Huy_Testcase.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NvHuy\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BCCBFC-9FE7-4397-B42C-EC99C6BEC355}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B9CD4-64E8-44F9-9A30-8E0942AAA7C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Function list" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1245" uniqueCount="491">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="504">
   <si>
     <t>No.</t>
   </si>
@@ -371,9 +371,6 @@
   <si>
     <t>1. Truy cập vào trang chủ của web ở localhost
 2.Tính toán thời gian load trang chủ</t>
-  </si>
-  <si>
-    <t>Usability</t>
   </si>
   <si>
     <t xml:space="preserve">Kiểm tra lỗi chính tả, ngữ pháp </t>
@@ -1297,24 +1294,6 @@
     <t>F005-T020</t>
   </si>
   <si>
-    <t>F005-T021</t>
-  </si>
-  <si>
-    <t>F005-T022</t>
-  </si>
-  <si>
-    <t>F005-T023</t>
-  </si>
-  <si>
-    <t>F005-T024</t>
-  </si>
-  <si>
-    <t>F005-T025</t>
-  </si>
-  <si>
-    <t>F005-T026</t>
-  </si>
-  <si>
     <t>Kiểm tra vị trí các item</t>
   </si>
   <si>
@@ -1886,6 +1865,81 @@
 1. Hiển thị dòng "Kết quả tìm kiếm",keyword, số lượng kết quả
 Actual:
 1. Không hiển thị dòng "Kết quả tìm kiếm",keyword, số lượng kết quả</t>
+  </si>
+  <si>
+    <t>F001-T014</t>
+  </si>
+  <si>
+    <t>Kiểm tra 100 user cùng truy cập vào trang chủ</t>
+  </si>
+  <si>
+    <t>1. Sử dụng công cụ Jmeter
+2. Nhập tên miền: https://testing-app3.herokuapp.com/
+3. Chạy ứng dụng</t>
+  </si>
+  <si>
+    <t>1. Throughput &gt;200/minute
+2.Deviation&lt;7000</t>
+  </si>
+  <si>
+    <t>1. Throughput =238.571/minute
+2. Deviatioan=6615</t>
+  </si>
+  <si>
+    <t>F002-T027</t>
+  </si>
+  <si>
+    <t>Kiểm tra 100 user cùng truy cập vào trang  danh sách sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Sử dụng công cụ Jmeter
+2. Nhập tên miền: https://testing-app3.herokuapp.com/shoes-stall.html
+3. Chạy ứng dụng</t>
+  </si>
+  <si>
+    <t>1. Throughput =340.437/minute
+2. Deviatioan=2619</t>
+  </si>
+  <si>
+    <t>F003-T018</t>
+  </si>
+  <si>
+    <t>Kiểm tra 100 user cùng truy cập vào trang  chi tiết sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Sử dụng công cụ Jmeter
+2. Nhập tên miền: https://testing-app3.herokuapp.com/single-product.html?_id=5e1553b9cb0e2e056ec0e0df
+3. Chạy ứng dụng</t>
+  </si>
+  <si>
+    <t>1. Throughput &gt;200/minute
+2.Deviation&lt;15000</t>
+  </si>
+  <si>
+    <t>F004-T021</t>
+  </si>
+  <si>
+    <t>1. Sử dụng công cụ Jmeter
+2. Nhập tên miền: https://testing-app3.herokuapp.com/single-product.html?_id=5e1553b9cb0e2e056ec0e0df&amp;startPage=1&amp;page=2
+3. Chạy ứng dụng</t>
+  </si>
+  <si>
+    <t>1. Throughput =222.3/minute
+2. Deviatioan=13244</t>
+  </si>
+  <si>
+    <t>1. Throughput =216.205/minute
+2. Deviatioan=13779</t>
+  </si>
+  <si>
+    <t>Kiểm tra 100 user cùng truy cập vào trang  bình luận sản phẩm</t>
+  </si>
+  <si>
+    <t>Kiểm tra 100 user cùng truy cập vào trang  tìm kiếm sản phẩm</t>
+  </si>
+  <si>
+    <t>1. Throughput =362.961/minute
+2. Deviatioan=2094</t>
   </si>
 </sst>
 </file>
@@ -2490,6 +2544,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2517,21 +2575,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="40">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -2596,6 +2644,12 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2808,27 +2862,27 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="B2:T104" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table_2" displayName="Table_2" ref="B2:T102" dataDxfId="19">
   <tableColumns count="19">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Test Case ID" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Function ID" dataDxfId="19"/>
-    <tableColumn id="20" xr3:uid="{612B6D47-1B33-431B-A511-49AA67229366}" name="Test Type" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Test case name" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Precondition" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Test steps" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Expected Result" dataDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Actual Result" dataDxfId="13"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Status" dataDxfId="12"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Bug ID" dataDxfId="11"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Tester" dataDxfId="10"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Tested Date" dataDxfId="9"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Remark" dataDxfId="8"/>
-    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Actual Result2" dataDxfId="7"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Status2" dataDxfId="6"/>
-    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Bug ID2" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Tester2" dataDxfId="4"/>
-    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Tested Date2" dataDxfId="3"/>
-    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Remark2" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Test Case ID" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Function ID" dataDxfId="17"/>
+    <tableColumn id="20" xr3:uid="{612B6D47-1B33-431B-A511-49AA67229366}" name="Test Type" dataDxfId="16"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Test case name" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Precondition" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Test steps" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Expected Result" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Actual Result" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Status" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Bug ID" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Tester" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="Tested Date" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" name="Remark" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" name="Actual Result2" dataDxfId="5"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" name="Status2" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" name="Bug ID2" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" name="Tester2" dataDxfId="2"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" name="Tested Date2" dataDxfId="1"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" name="Remark2" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Test cases-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2839,8 +2893,8 @@
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Bug ID"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Function name"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Problem summary" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="How to reproduce it" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Problem summary" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="How to reproduce it" dataDxfId="20"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Reported by"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Date"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Assigned to"/>
@@ -6188,8 +6242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:T1008"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A104"/>
+    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I102" sqref="I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6204,22 +6258,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="H1" s="74" t="s">
+      <c r="H1" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="L1" s="75"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="77" t="s">
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="75"/>
-      <c r="P1" s="75"/>
-      <c r="Q1" s="75"/>
-      <c r="R1" s="75"/>
-      <c r="S1" s="76"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="78"/>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -6338,20 +6392,20 @@
         <v>5</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F4" s="60"/>
       <c r="G4" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H4" s="13" t="s">
         <v>109</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J4" s="60" t="s">
         <v>88</v>
@@ -6382,20 +6436,20 @@
         <v>5</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F5" s="60"/>
       <c r="G5" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" s="60" t="s">
         <v>88</v>
@@ -6426,20 +6480,20 @@
         <v>5</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F6" s="60"/>
       <c r="G6" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J6" s="60" t="s">
         <v>88</v>
@@ -6470,20 +6524,20 @@
         <v>5</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F7" s="60"/>
       <c r="G7" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>122</v>
-      </c>
       <c r="I7" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J7" s="60" t="s">
         <v>88</v>
@@ -6514,20 +6568,20 @@
         <v>5</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F8" s="60"/>
       <c r="G8" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="I8" s="13" t="s">
         <v>125</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>126</v>
       </c>
       <c r="J8" s="60" t="s">
         <v>88</v>
@@ -6558,20 +6612,20 @@
         <v>5</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F9" s="60"/>
       <c r="G9" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="H9" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="I9" s="13" t="s">
         <v>129</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>130</v>
       </c>
       <c r="J9" s="60" t="s">
         <v>39</v>
@@ -6604,20 +6658,20 @@
         <v>5</v>
       </c>
       <c r="D10" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="F10" s="60"/>
       <c r="G10" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="13" t="s">
-        <v>134</v>
-      </c>
       <c r="I10" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J10" s="60" t="s">
         <v>88</v>
@@ -6648,20 +6702,20 @@
         <v>5</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F11" s="60"/>
       <c r="G11" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H11" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="J11" s="60" t="s">
         <v>88</v>
@@ -6692,20 +6746,20 @@
         <v>5</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F12" s="60"/>
       <c r="G12" s="12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J12" s="60" t="s">
         <v>88</v>
@@ -6736,20 +6790,20 @@
         <v>5</v>
       </c>
       <c r="D13" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E13" s="66" t="s">
         <v>140</v>
-      </c>
-      <c r="E13" s="66" t="s">
-        <v>141</v>
       </c>
       <c r="F13" s="60"/>
       <c r="G13" s="67" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="66" t="s">
         <v>142</v>
       </c>
-      <c r="H13" s="66" t="s">
-        <v>143</v>
-      </c>
       <c r="I13" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J13" s="60" t="s">
         <v>88</v>
@@ -6759,7 +6813,7 @@
         <v>105</v>
       </c>
       <c r="M13" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -6780,20 +6834,20 @@
         <v>5</v>
       </c>
       <c r="D14" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F14" s="60"/>
       <c r="G14" s="67" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" s="66" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="66" t="s">
-        <v>146</v>
-      </c>
       <c r="I14" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J14" s="60" t="s">
         <v>88</v>
@@ -6803,7 +6857,7 @@
         <v>105</v>
       </c>
       <c r="M14" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -6824,20 +6878,20 @@
         <v>5</v>
       </c>
       <c r="D15" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E15" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F15" s="60"/>
       <c r="G15" s="67" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="66" t="s">
         <v>149</v>
       </c>
-      <c r="H15" s="66" t="s">
-        <v>150</v>
-      </c>
       <c r="I15" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J15" s="69" t="s">
         <v>88</v>
@@ -6847,7 +6901,7 @@
         <v>105</v>
       </c>
       <c r="M15" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -6862,26 +6916,26 @@
         <v>14</v>
       </c>
       <c r="B16" s="66" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="66" t="s">
         <v>8</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F16" s="60"/>
       <c r="G16" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>109</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J16" s="60" t="s">
         <v>88</v>
@@ -6906,26 +6960,26 @@
         <v>15</v>
       </c>
       <c r="B17" s="66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C17" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F17" s="60"/>
       <c r="G17" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="H17" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>179</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>180</v>
       </c>
       <c r="J17" s="60" t="s">
         <v>39</v>
@@ -6952,26 +7006,26 @@
         <v>16</v>
       </c>
       <c r="B18" s="66" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F18" s="60"/>
       <c r="G18" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J18" s="60" t="s">
         <v>88</v>
@@ -6996,26 +7050,26 @@
         <v>17</v>
       </c>
       <c r="B19" s="66" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C19" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" s="66" t="s">
         <v>140</v>
-      </c>
-      <c r="E19" s="66" t="s">
-        <v>141</v>
       </c>
       <c r="F19" s="60"/>
       <c r="G19" s="67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H19" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I19" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J19" s="60" t="s">
         <v>88</v>
@@ -7040,26 +7094,26 @@
         <v>18</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D20" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E20" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F20" s="60"/>
       <c r="G20" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I20" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="H20" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>184</v>
       </c>
       <c r="J20" s="60" t="s">
         <v>39</v>
@@ -7084,26 +7138,26 @@
         <v>19</v>
       </c>
       <c r="B21" s="66" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D21" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E21" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F21" s="60"/>
       <c r="G21" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H21" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I21" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J21" s="69" t="s">
         <v>88</v>
@@ -7128,26 +7182,26 @@
         <v>20</v>
       </c>
       <c r="B22" s="66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D22" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="F22" s="60"/>
       <c r="G22" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J22" s="60" t="s">
         <v>88</v>
@@ -7172,26 +7226,26 @@
         <v>21</v>
       </c>
       <c r="B23" s="66" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F23" s="60"/>
       <c r="G23" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H23" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I23" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="J23" s="60" t="s">
         <v>88</v>
@@ -7216,26 +7270,26 @@
         <v>22</v>
       </c>
       <c r="B24" s="66" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F24" s="60"/>
       <c r="G24" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J24" s="60" t="s">
         <v>88</v>
@@ -7260,26 +7314,26 @@
         <v>23</v>
       </c>
       <c r="B25" s="66" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D25" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E25" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="F25" s="60"/>
       <c r="G25" s="12" t="s">
+        <v>188</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>190</v>
-      </c>
       <c r="I25" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J25" s="60" t="s">
         <v>88</v>
@@ -7304,26 +7358,26 @@
         <v>24</v>
       </c>
       <c r="B26" s="66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F26" s="60"/>
       <c r="G26" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="H26" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="H26" s="13" t="s">
-        <v>193</v>
-      </c>
       <c r="I26" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J26" s="60" t="s">
         <v>88</v>
@@ -7348,26 +7402,26 @@
         <v>25</v>
       </c>
       <c r="B27" s="66" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F27" s="60"/>
       <c r="G27" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H27" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J27" s="60" t="s">
         <v>88</v>
@@ -7392,26 +7446,26 @@
         <v>26</v>
       </c>
       <c r="B28" s="66" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F28" s="60"/>
       <c r="G28" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H28" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I28" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J28" s="60" t="s">
         <v>88</v>
@@ -7436,26 +7490,26 @@
         <v>27</v>
       </c>
       <c r="B29" s="66" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C29" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F29" s="60"/>
       <c r="G29" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H29" s="13" t="s">
         <v>201</v>
       </c>
-      <c r="H29" s="13" t="s">
-        <v>202</v>
-      </c>
       <c r="I29" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J29" s="60" t="s">
         <v>88</v>
@@ -7480,26 +7534,26 @@
         <v>28</v>
       </c>
       <c r="B30" s="66" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F30" s="60"/>
       <c r="G30" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J30" s="60" t="s">
         <v>88</v>
@@ -7524,26 +7578,26 @@
         <v>29</v>
       </c>
       <c r="B31" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C31" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F31" s="60"/>
       <c r="G31" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H31" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="H31" s="13" t="s">
-        <v>256</v>
-      </c>
       <c r="I31" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J31" s="60" t="s">
         <v>88</v>
@@ -7568,26 +7622,26 @@
         <v>30</v>
       </c>
       <c r="B32" s="66" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C32" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F32" s="60"/>
       <c r="G32" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="H32" s="13" t="s">
-        <v>259</v>
-      </c>
       <c r="I32" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J32" s="60" t="s">
         <v>88</v>
@@ -7612,26 +7666,26 @@
         <v>31</v>
       </c>
       <c r="B33" s="66" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F33" s="60"/>
       <c r="G33" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="H33" s="13" t="s">
+      <c r="I33" s="13" t="s">
         <v>205</v>
-      </c>
-      <c r="I33" s="13" t="s">
-        <v>206</v>
       </c>
       <c r="J33" s="60" t="s">
         <v>39</v>
@@ -7656,26 +7710,26 @@
         <v>32</v>
       </c>
       <c r="B34" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F34" s="60"/>
       <c r="G34" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H34" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="H34" s="13" t="s">
+      <c r="I34" s="13" t="s">
         <v>209</v>
-      </c>
-      <c r="I34" s="13" t="s">
-        <v>210</v>
       </c>
       <c r="J34" s="60" t="s">
         <v>39</v>
@@ -7700,26 +7754,26 @@
         <v>33</v>
       </c>
       <c r="B35" s="66" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C35" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F35" s="60"/>
       <c r="G35" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J35" s="60" t="s">
         <v>88</v>
@@ -7744,32 +7798,32 @@
         <v>34</v>
       </c>
       <c r="B36" s="66" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F36" s="60"/>
       <c r="G36" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H36" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I36" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="I36" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="J36" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K36" s="60" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="L36" s="13" t="s">
         <v>105</v>
@@ -7790,32 +7844,32 @@
         <v>35</v>
       </c>
       <c r="B37" s="66" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C37" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F37" s="60"/>
       <c r="G37" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H37" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I37" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="I37" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="J37" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K37" s="60" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="L37" s="13" t="s">
         <v>105</v>
@@ -7836,32 +7890,32 @@
         <v>36</v>
       </c>
       <c r="B38" s="66" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C38" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="F38" s="60"/>
       <c r="G38" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="H38" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="H38" s="13" t="s">
+      <c r="I38" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="I38" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="J38" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K38" s="60" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="L38" s="13" t="s">
         <v>105</v>
@@ -7882,32 +7936,32 @@
         <v>37</v>
       </c>
       <c r="B39" s="66" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C39" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="F39" s="60"/>
       <c r="G39" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H39" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>226</v>
-      </c>
       <c r="I39" s="13" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="J39" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K39" s="60" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="L39" s="13" t="s">
         <v>105</v>
@@ -7928,26 +7982,26 @@
         <v>38</v>
       </c>
       <c r="B40" s="66" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C40" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F40" s="60"/>
       <c r="G40" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H40" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="H40" s="13" t="s">
-        <v>230</v>
-      </c>
       <c r="I40" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J40" s="60" t="s">
         <v>88</v>
@@ -7972,26 +8026,26 @@
         <v>39</v>
       </c>
       <c r="B41" s="66" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C41" s="13" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F41" s="60"/>
       <c r="G41" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H41" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="H41" s="13" t="s">
+      <c r="I41" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="I41" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="J41" s="60" t="s">
         <v>39</v>
@@ -8016,26 +8070,26 @@
         <v>40</v>
       </c>
       <c r="B42" s="66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C42" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D42" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E42" s="66" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F42" s="60"/>
       <c r="G42" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="H42" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="H42" s="13" t="s">
-        <v>262</v>
-      </c>
       <c r="I42" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J42" s="60" t="s">
         <v>88</v>
@@ -8060,26 +8114,26 @@
         <v>41</v>
       </c>
       <c r="B43" s="66" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C43" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D43" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="66" t="s">
         <v>140</v>
-      </c>
-      <c r="E43" s="66" t="s">
-        <v>141</v>
       </c>
       <c r="F43" s="60"/>
       <c r="G43" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="H43" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I43" s="66" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J43" s="60" t="s">
         <v>88</v>
@@ -8104,26 +8158,26 @@
         <v>42</v>
       </c>
       <c r="B44" s="66" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C44" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F44" s="60"/>
       <c r="G44" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J44" s="60" t="s">
         <v>88</v>
@@ -8148,32 +8202,32 @@
         <v>43</v>
       </c>
       <c r="B45" s="66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C45" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D45" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E45" s="66" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F45" s="60"/>
       <c r="G45" s="67" t="s">
+        <v>263</v>
+      </c>
+      <c r="H45" s="66" t="s">
+        <v>145</v>
+      </c>
+      <c r="I45" s="13" t="s">
         <v>264</v>
-      </c>
-      <c r="H45" s="66" t="s">
-        <v>146</v>
-      </c>
-      <c r="I45" s="13" t="s">
-        <v>265</v>
       </c>
       <c r="J45" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K45" s="60" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="L45" s="13" t="s">
         <v>105</v>
@@ -8194,26 +8248,26 @@
         <v>44</v>
       </c>
       <c r="B46" s="66" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D46" s="66" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E46" s="66" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" s="60"/>
       <c r="G46" s="67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H46" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I46" s="66" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J46" s="69" t="s">
         <v>88</v>
@@ -8238,26 +8292,26 @@
         <v>45</v>
       </c>
       <c r="B47" s="66" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C47" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D47" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="E47" s="13" t="s">
         <v>131</v>
-      </c>
-      <c r="E47" s="13" t="s">
-        <v>132</v>
       </c>
       <c r="F47" s="60"/>
       <c r="G47" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J47" s="60" t="s">
         <v>88</v>
@@ -8282,26 +8336,26 @@
         <v>46</v>
       </c>
       <c r="B48" s="66" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C48" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F48" s="60"/>
       <c r="G48" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H48" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="I48" s="13" t="s">
         <v>136</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>137</v>
       </c>
       <c r="J48" s="60" t="s">
         <v>88</v>
@@ -8326,26 +8380,26 @@
         <v>47</v>
       </c>
       <c r="B49" s="66" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C49" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F49" s="60"/>
       <c r="G49" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J49" s="60" t="s">
         <v>88</v>
@@ -8370,26 +8424,26 @@
         <v>48</v>
       </c>
       <c r="B50" s="66" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C50" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D50" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F50" s="60"/>
       <c r="G50" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H50" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J50" s="60" t="s">
         <v>88</v>
@@ -8414,26 +8468,26 @@
         <v>49</v>
       </c>
       <c r="B51" s="66" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C51" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D51" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F51" s="60"/>
       <c r="G51" s="12" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H51" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J51" s="60" t="s">
         <v>88</v>
@@ -8458,26 +8512,26 @@
         <v>50</v>
       </c>
       <c r="B52" s="66" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C52" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="71" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F52" s="60"/>
       <c r="G52" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H52" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J52" s="60" t="s">
         <v>88</v>
@@ -8502,26 +8556,26 @@
         <v>51</v>
       </c>
       <c r="B53" s="66" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C53" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D53" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F53" s="60"/>
       <c r="G53" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="H53" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="H53" s="13" t="s">
-        <v>267</v>
-      </c>
       <c r="I53" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J53" s="60" t="s">
         <v>88</v>
@@ -8546,26 +8600,26 @@
         <v>52</v>
       </c>
       <c r="B54" s="66" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D54" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F54" s="60"/>
       <c r="G54" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="H54" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="H54" s="13" t="s">
-        <v>271</v>
-      </c>
       <c r="I54" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J54" s="60" t="s">
         <v>88</v>
@@ -8590,26 +8644,26 @@
         <v>53</v>
       </c>
       <c r="B55" s="66" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C55" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D55" s="66" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F55" s="60"/>
       <c r="G55" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="H55" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="H55" s="13" t="s">
-        <v>273</v>
-      </c>
       <c r="I55" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J55" s="60" t="s">
         <v>88</v>
@@ -8634,26 +8688,26 @@
         <v>54</v>
       </c>
       <c r="B56" s="66" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C56" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F56" s="60"/>
       <c r="G56" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="H56" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="H56" s="13" t="s">
-        <v>282</v>
-      </c>
       <c r="I56" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J56" s="60" t="s">
         <v>88</v>
@@ -8678,32 +8732,32 @@
         <v>55</v>
       </c>
       <c r="B57" s="66" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F57" s="60"/>
       <c r="G57" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="H57" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="H57" s="13" t="s">
+      <c r="I57" s="13" t="s">
         <v>285</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>286</v>
       </c>
       <c r="J57" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K57" s="60" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="L57" s="13" t="s">
         <v>105</v>
@@ -8724,26 +8778,26 @@
         <v>56</v>
       </c>
       <c r="B58" s="66" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C58" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F58" s="60"/>
       <c r="G58" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="H58" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="H58" s="13" t="s">
-        <v>289</v>
-      </c>
       <c r="I58" s="13" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J58" s="60" t="s">
         <v>88</v>
@@ -8768,26 +8822,26 @@
         <v>57</v>
       </c>
       <c r="B59" s="66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C59" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F59" s="60"/>
       <c r="G59" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H59" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J59" s="60" t="s">
         <v>88</v>
@@ -8812,26 +8866,26 @@
         <v>58</v>
       </c>
       <c r="B60" s="66" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C60" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F60" s="60"/>
       <c r="G60" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H60" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I60" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="J60" s="60" t="s">
         <v>39</v>
@@ -8856,26 +8910,26 @@
         <v>59</v>
       </c>
       <c r="B61" s="66" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C61" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F61" s="60"/>
       <c r="G61" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H61" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I61" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="J61" s="60" t="s">
         <v>39</v>
@@ -8900,26 +8954,26 @@
         <v>60</v>
       </c>
       <c r="B62" s="66" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C62" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F62" s="60"/>
       <c r="G62" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H62" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I62" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="J62" s="60" t="s">
         <v>39</v>
@@ -8944,26 +8998,26 @@
         <v>61</v>
       </c>
       <c r="B63" s="66" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F63" s="60"/>
       <c r="G63" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H63" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I63" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="I63" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="J63" s="60" t="s">
         <v>39</v>
@@ -8988,26 +9042,26 @@
         <v>62</v>
       </c>
       <c r="B64" s="66" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C64" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F64" s="60"/>
       <c r="G64" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H64" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J64" s="60" t="s">
         <v>88</v>
@@ -9032,26 +9086,26 @@
         <v>63</v>
       </c>
       <c r="B65" s="66" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F65" s="60"/>
       <c r="G65" s="12" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="H65" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I65" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="I65" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="J65" s="60" t="s">
         <v>39</v>
@@ -9076,32 +9130,32 @@
         <v>64</v>
       </c>
       <c r="B66" s="66" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C66" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E66" s="13" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F66" s="60"/>
       <c r="G66" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="H66" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="H66" s="13" t="s">
+      <c r="I66" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="I66" s="13" t="s">
-        <v>313</v>
       </c>
       <c r="J66" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K66" s="60" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="L66" s="13" t="s">
         <v>105</v>
@@ -9122,28 +9176,28 @@
         <v>65</v>
       </c>
       <c r="B67" s="66" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C67" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E67" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F67" s="60" t="s">
         <v>314</v>
       </c>
-      <c r="F67" s="60" t="s">
+      <c r="G67" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="G67" s="12" t="s">
+      <c r="H67" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="H67" s="13" t="s">
-        <v>317</v>
-      </c>
       <c r="I67" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J67" s="60" t="s">
         <v>88</v>
@@ -9168,28 +9222,28 @@
         <v>66</v>
       </c>
       <c r="B68" s="66" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C68" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E68" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="F68" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>318</v>
+      </c>
+      <c r="H68" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="F68" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="G68" s="12" t="s">
-        <v>319</v>
-      </c>
-      <c r="H68" s="13" t="s">
-        <v>321</v>
-      </c>
       <c r="I68" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J68" s="60" t="s">
         <v>88</v>
@@ -9214,34 +9268,34 @@
         <v>67</v>
       </c>
       <c r="B69" s="66" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C69" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E69" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F69" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="G69" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="F69" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="G69" s="12" t="s">
+      <c r="H69" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="H69" s="13" t="s">
+      <c r="I69" s="13" t="s">
         <v>324</v>
-      </c>
-      <c r="I69" s="13" t="s">
-        <v>325</v>
       </c>
       <c r="J69" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K69" s="60" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L69" s="13" t="s">
         <v>105</v>
@@ -9262,34 +9316,34 @@
         <v>68</v>
       </c>
       <c r="B70" s="66" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C70" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E70" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="F70" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>328</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="I70" s="13" t="s">
         <v>326</v>
-      </c>
-      <c r="F70" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>329</v>
-      </c>
-      <c r="H70" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="I70" s="13" t="s">
-        <v>327</v>
       </c>
       <c r="J70" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K70" s="60" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="L70" s="13" t="s">
         <v>105</v>
@@ -9310,34 +9364,34 @@
         <v>69</v>
       </c>
       <c r="B71" s="66" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C71" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E71" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="F71" s="60" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G71" s="12" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H71" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J71" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K71" s="60" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="L71" s="13" t="s">
         <v>105</v>
@@ -9358,34 +9412,34 @@
         <v>70</v>
       </c>
       <c r="B72" s="66" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C72" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E72" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="F72" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="G72" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="F72" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="G72" s="12" t="s">
-        <v>332</v>
-      </c>
       <c r="H72" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J72" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K72" s="60" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="L72" s="13" t="s">
         <v>105</v>
@@ -9406,34 +9460,34 @@
         <v>71</v>
       </c>
       <c r="B73" s="66" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C73" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E73" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F73" s="60" t="s">
+        <v>314</v>
+      </c>
+      <c r="G73" s="12" t="s">
         <v>333</v>
       </c>
-      <c r="F73" s="60" t="s">
-        <v>315</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>334</v>
-      </c>
       <c r="H73" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J73" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K73" s="60" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="L73" s="13" t="s">
         <v>105</v>
@@ -9454,28 +9508,28 @@
         <v>72</v>
       </c>
       <c r="B74" s="66" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C74" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E74" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F74" s="60" t="s">
+        <v>346</v>
+      </c>
+      <c r="G74" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="G74" s="12" t="s">
-        <v>348</v>
-      </c>
       <c r="H74" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J74" s="60" t="s">
         <v>88</v>
@@ -9500,34 +9554,34 @@
         <v>73</v>
       </c>
       <c r="B75" s="66" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C75" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E75" s="13" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F75" s="60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G75" s="12" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="H75" s="13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J75" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K75" s="60" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="L75" s="13" t="s">
         <v>105</v>
@@ -9548,34 +9602,34 @@
         <v>74</v>
       </c>
       <c r="B76" s="66" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C76" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F76" s="60" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G76" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H76" s="13" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J76" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K76" s="60" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="L76" s="13" t="s">
         <v>105</v>
@@ -9596,28 +9650,28 @@
         <v>75</v>
       </c>
       <c r="B77" s="66" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C77" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E77" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="F77" s="60" t="s">
+        <v>317</v>
+      </c>
+      <c r="G77" s="12" t="s">
         <v>344</v>
       </c>
-      <c r="F77" s="60" t="s">
-        <v>318</v>
-      </c>
-      <c r="G77" s="12" t="s">
+      <c r="H77" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="H77" s="13" t="s">
-        <v>346</v>
-      </c>
       <c r="I77" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J77" s="60" t="s">
         <v>88</v>
@@ -9642,32 +9696,32 @@
         <v>76</v>
       </c>
       <c r="B78" s="66" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C78" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="F78" s="60"/>
       <c r="G78" s="12" t="s">
+        <v>340</v>
+      </c>
+      <c r="H78" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="H78" s="13" t="s">
+      <c r="I78" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="I78" s="13" t="s">
-        <v>343</v>
       </c>
       <c r="J78" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K78" s="60" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="L78" s="13" t="s">
         <v>105</v>
@@ -9688,26 +9742,26 @@
         <v>77</v>
       </c>
       <c r="B79" s="66" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C79" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="F79" s="60"/>
       <c r="G79" s="12" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="H79" s="13" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="I79" s="13" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="J79" s="60" t="s">
         <v>88</v>
@@ -9732,32 +9786,32 @@
         <v>78</v>
       </c>
       <c r="B80" s="66" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C80" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E80" s="13" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="F80" s="60"/>
       <c r="G80" s="12" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H80" s="13" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="J80" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K80" s="60" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="L80" s="13" t="s">
         <v>105</v>
@@ -9778,26 +9832,26 @@
         <v>79</v>
       </c>
       <c r="B81" s="66" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C81" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E81" s="13" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="F81" s="60"/>
       <c r="G81" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="H81" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="H81" s="13" t="s">
-        <v>383</v>
-      </c>
       <c r="I81" s="13" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J81" s="60" t="s">
         <v>88</v>
@@ -9822,32 +9876,32 @@
         <v>80</v>
       </c>
       <c r="B82" s="66" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C82" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="F82" s="60"/>
       <c r="G82" s="12" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="J82" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K82" s="60" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="L82" s="13" t="s">
         <v>105</v>
@@ -9868,32 +9922,32 @@
         <v>81</v>
       </c>
       <c r="B83" s="66" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C83" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="F83" s="60"/>
       <c r="G83" s="12" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="J83" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K83" s="60" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="L83" s="13" t="s">
         <v>105</v>
@@ -9914,26 +9968,26 @@
         <v>82</v>
       </c>
       <c r="B84" s="66" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C84" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="F84" s="60"/>
       <c r="G84" s="12" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J84" s="60" t="s">
         <v>88</v>
@@ -9958,26 +10012,26 @@
         <v>83</v>
       </c>
       <c r="B85" s="66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C85" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E85" s="13" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="F85" s="60"/>
       <c r="G85" s="12" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="J85" s="60" t="s">
         <v>88</v>
@@ -10002,32 +10056,32 @@
         <v>84</v>
       </c>
       <c r="B86" s="66" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C86" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="F86" s="60"/>
       <c r="G86" s="12" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="H86" s="13" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="J86" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K86" s="60" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="L86" s="13" t="s">
         <v>105</v>
@@ -10048,26 +10102,26 @@
         <v>85</v>
       </c>
       <c r="B87" s="66" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C87" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="F87" s="60"/>
       <c r="G87" s="12" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="J87" s="60" t="s">
         <v>88</v>
@@ -10092,32 +10146,32 @@
         <v>86</v>
       </c>
       <c r="B88" s="66" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C88" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="F88" s="60"/>
       <c r="G88" s="12" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="J88" s="60" t="s">
         <v>39</v>
       </c>
       <c r="K88" s="60" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="L88" s="13" t="s">
         <v>105</v>
@@ -10138,26 +10192,26 @@
         <v>87</v>
       </c>
       <c r="B89" s="66" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C89" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="F89" s="60"/>
       <c r="G89" s="12" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="J89" s="60" t="s">
         <v>88</v>
@@ -10182,26 +10236,26 @@
         <v>88</v>
       </c>
       <c r="B90" s="66" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F90" s="60"/>
       <c r="G90" s="12" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="J90" s="60" t="s">
         <v>88</v>
@@ -10226,26 +10280,26 @@
         <v>89</v>
       </c>
       <c r="B91" s="66" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C91" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F91" s="60"/>
       <c r="G91" s="12" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J91" s="60" t="s">
         <v>88</v>
@@ -10270,26 +10324,26 @@
         <v>90</v>
       </c>
       <c r="B92" s="66" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C92" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E92" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F92" s="60"/>
       <c r="G92" s="12" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="H92" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I92" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="I92" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="J92" s="60" t="s">
         <v>39</v>
@@ -10314,26 +10368,26 @@
         <v>91</v>
       </c>
       <c r="B93" s="66" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C93" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F93" s="60"/>
       <c r="G93" s="12" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="H93" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="I93" s="13" t="s">
         <v>215</v>
-      </c>
-      <c r="I93" s="13" t="s">
-        <v>216</v>
       </c>
       <c r="J93" s="60" t="s">
         <v>39</v>
@@ -10358,26 +10412,26 @@
         <v>92</v>
       </c>
       <c r="B94" s="66" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F94" s="60"/>
       <c r="G94" s="12" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="H94" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="I94" s="13" t="s">
         <v>222</v>
-      </c>
-      <c r="I94" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="J94" s="60" t="s">
         <v>39</v>
@@ -10402,26 +10456,26 @@
         <v>93</v>
       </c>
       <c r="B95" s="66" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E95" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F95" s="60"/>
       <c r="G95" s="12" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="H95" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="I95" s="13" t="s">
         <v>226</v>
-      </c>
-      <c r="I95" s="13" t="s">
-        <v>227</v>
       </c>
       <c r="J95" s="60" t="s">
         <v>39</v>
@@ -10446,26 +10500,26 @@
         <v>94</v>
       </c>
       <c r="B96" s="66" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C96" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E96" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F96" s="60"/>
       <c r="G96" s="12" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="H96" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J96" s="60" t="s">
         <v>88</v>
@@ -10490,26 +10544,26 @@
         <v>95</v>
       </c>
       <c r="B97" s="66" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C97" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E97" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F97" s="60"/>
       <c r="G97" s="12" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="H97" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="I97" s="13" t="s">
         <v>233</v>
-      </c>
-      <c r="I97" s="13" t="s">
-        <v>234</v>
       </c>
       <c r="J97" s="60" t="s">
         <v>88</v>
@@ -10529,31 +10583,31 @@
       <c r="S97" s="62"/>
       <c r="T97" s="60"/>
     </row>
-    <row r="98" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:20" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>96</v>
       </c>
       <c r="B98" s="66" t="s">
-        <v>368</v>
+        <v>484</v>
       </c>
       <c r="C98" s="13" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E98" s="13" t="s">
-        <v>118</v>
+        <v>485</v>
       </c>
       <c r="F98" s="60"/>
       <c r="G98" s="12" t="s">
-        <v>117</v>
+        <v>486</v>
       </c>
       <c r="H98" s="13" t="s">
-        <v>119</v>
+        <v>487</v>
       </c>
       <c r="I98" s="13" t="s">
-        <v>119</v>
+        <v>488</v>
       </c>
       <c r="J98" s="60" t="s">
         <v>88</v>
@@ -10563,7 +10617,7 @@
         <v>105</v>
       </c>
       <c r="M98" s="62">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="N98" s="13"/>
       <c r="O98" s="13"/>
@@ -10573,31 +10627,31 @@
       <c r="S98" s="62"/>
       <c r="T98" s="60"/>
     </row>
-    <row r="99" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:20" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>97</v>
       </c>
       <c r="B99" s="66" t="s">
-        <v>369</v>
+        <v>489</v>
       </c>
       <c r="C99" s="13" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E99" s="13" t="s">
-        <v>118</v>
+        <v>490</v>
       </c>
       <c r="F99" s="60"/>
       <c r="G99" s="12" t="s">
-        <v>117</v>
+        <v>491</v>
       </c>
       <c r="H99" s="13" t="s">
-        <v>119</v>
+        <v>487</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>119</v>
+        <v>492</v>
       </c>
       <c r="J99" s="60" t="s">
         <v>88</v>
@@ -10607,7 +10661,7 @@
         <v>105</v>
       </c>
       <c r="M99" s="62">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="N99" s="13"/>
       <c r="O99" s="13"/>
@@ -10617,31 +10671,31 @@
       <c r="S99" s="62"/>
       <c r="T99" s="60"/>
     </row>
-    <row r="100" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:20" ht="98.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>98</v>
       </c>
       <c r="B100" s="66" t="s">
-        <v>370</v>
+        <v>493</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E100" s="13" t="s">
-        <v>118</v>
+        <v>494</v>
       </c>
       <c r="F100" s="60"/>
       <c r="G100" s="12" t="s">
-        <v>117</v>
+        <v>495</v>
       </c>
       <c r="H100" s="13" t="s">
-        <v>119</v>
+        <v>496</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>119</v>
+        <v>499</v>
       </c>
       <c r="J100" s="60" t="s">
         <v>88</v>
@@ -10651,7 +10705,7 @@
         <v>105</v>
       </c>
       <c r="M100" s="62">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="N100" s="13"/>
       <c r="O100" s="13"/>
@@ -10661,31 +10715,31 @@
       <c r="S100" s="62"/>
       <c r="T100" s="60"/>
     </row>
-    <row r="101" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:20" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>99</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>371</v>
+        <v>497</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E101" s="13" t="s">
-        <v>118</v>
+        <v>501</v>
       </c>
       <c r="F101" s="60"/>
       <c r="G101" s="12" t="s">
-        <v>117</v>
+        <v>498</v>
       </c>
       <c r="H101" s="13" t="s">
-        <v>119</v>
+        <v>496</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>119</v>
+        <v>500</v>
       </c>
       <c r="J101" s="60" t="s">
         <v>88</v>
@@ -10695,7 +10749,7 @@
         <v>105</v>
       </c>
       <c r="M101" s="62">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="N101" s="13"/>
       <c r="O101" s="13"/>
@@ -10705,31 +10759,31 @@
       <c r="S101" s="62"/>
       <c r="T101" s="60"/>
     </row>
-    <row r="102" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:20" ht="82.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>100</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E102" s="13" t="s">
-        <v>118</v>
+        <v>502</v>
       </c>
       <c r="F102" s="60"/>
       <c r="G102" s="12" t="s">
-        <v>117</v>
+        <v>498</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>119</v>
+        <v>487</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>119</v>
+        <v>503</v>
       </c>
       <c r="J102" s="60" t="s">
         <v>88</v>
@@ -10739,7 +10793,7 @@
         <v>105</v>
       </c>
       <c r="M102" s="62">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="N102" s="13"/>
       <c r="O102" s="13"/>
@@ -10750,41 +10804,19 @@
       <c r="T102" s="60"/>
     </row>
     <row r="103" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="4">
-        <v>101</v>
-      </c>
-      <c r="B103" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E103" s="13" t="s">
-        <v>118</v>
-      </c>
+      <c r="A103" s="4"/>
+      <c r="B103" s="66"/>
+      <c r="C103" s="13"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="13"/>
       <c r="F103" s="60"/>
-      <c r="G103" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H103" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="I103" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="J103" s="60" t="s">
-        <v>88</v>
-      </c>
+      <c r="G103" s="12"/>
+      <c r="H103" s="13"/>
+      <c r="I103" s="13"/>
+      <c r="J103" s="60"/>
       <c r="K103" s="60"/>
-      <c r="L103" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="M103" s="62">
-        <v>44378</v>
-      </c>
+      <c r="L103" s="13"/>
+      <c r="M103" s="62"/>
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
       <c r="P103" s="60"/>
@@ -10794,41 +10826,19 @@
       <c r="T103" s="60"/>
     </row>
     <row r="104" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="4">
-        <v>102</v>
-      </c>
-      <c r="B104" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D104" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="E104" s="13" t="s">
-        <v>118</v>
-      </c>
+      <c r="A104" s="4"/>
+      <c r="B104" s="66"/>
+      <c r="C104" s="13"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="13"/>
       <c r="F104" s="60"/>
-      <c r="G104" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="H104" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="I104" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="J104" s="60" t="s">
-        <v>88</v>
-      </c>
+      <c r="G104" s="12"/>
+      <c r="H104" s="13"/>
+      <c r="I104" s="13"/>
+      <c r="J104" s="60"/>
       <c r="K104" s="60"/>
-      <c r="L104" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="M104" s="62">
-        <v>44378</v>
-      </c>
+      <c r="L104" s="13"/>
+      <c r="M104" s="62"/>
       <c r="N104" s="13"/>
       <c r="O104" s="13"/>
       <c r="P104" s="60"/>
@@ -13817,10 +13827,10 @@
         <v>6</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="F2" s="36" t="s">
         <v>105</v>
@@ -13830,10 +13840,10 @@
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="36" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J2" s="36" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>63</v>
@@ -13851,10 +13861,10 @@
         <v>9</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="F3" s="36" t="s">
         <v>105</v>
@@ -13864,10 +13874,10 @@
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="36" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J3" s="36" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K3" s="36" t="s">
         <v>63</v>
@@ -13876,16 +13886,16 @@
     </row>
     <row r="4" spans="1:12" ht="150.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="15" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="71" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="E4" s="71" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>105</v>
@@ -13894,7 +13904,7 @@
         <v>43922</v>
       </c>
       <c r="I4" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J4" t="s">
         <v>69</v>
@@ -13905,16 +13915,16 @@
     </row>
     <row r="5" spans="1:12" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="71" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E5" s="71" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>105</v>
@@ -13923,7 +13933,7 @@
         <v>43922</v>
       </c>
       <c r="I5" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J5" s="73" t="s">
         <v>69</v>
@@ -13934,16 +13944,16 @@
     </row>
     <row r="6" spans="1:12" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="71" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E6" s="71" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>105</v>
@@ -13952,7 +13962,7 @@
         <v>43922</v>
       </c>
       <c r="I6" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J6" t="s">
         <v>69</v>
@@ -13963,16 +13973,16 @@
     </row>
     <row r="7" spans="1:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="71" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E7" s="71" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="F7" s="36" t="s">
         <v>105</v>
@@ -13981,7 +13991,7 @@
         <v>43922</v>
       </c>
       <c r="I7" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J7" s="73" t="s">
         <v>69</v>
@@ -13992,16 +14002,16 @@
     </row>
     <row r="8" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D8" s="71" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E8" s="71" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="F8" s="36" t="s">
         <v>105</v>
@@ -14010,10 +14020,10 @@
         <v>43922</v>
       </c>
       <c r="I8" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J8" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K8" t="s">
         <v>63</v>
@@ -14021,16 +14031,16 @@
     </row>
     <row r="9" spans="1:12" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="71" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E9" s="71" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="F9" s="36" t="s">
         <v>105</v>
@@ -14039,10 +14049,10 @@
         <v>43922</v>
       </c>
       <c r="I9" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J9" s="73" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K9" s="73" t="s">
         <v>63</v>
@@ -14050,16 +14060,16 @@
     </row>
     <row r="10" spans="1:12" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D10" s="71" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="E10" s="71" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="F10" s="36" t="s">
         <v>105</v>
@@ -14068,10 +14078,10 @@
         <v>43952</v>
       </c>
       <c r="I10" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J10" s="73" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K10" s="73" t="s">
         <v>63</v>
@@ -14079,16 +14089,16 @@
     </row>
     <row r="11" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D11" s="71" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="E11" s="71" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>105</v>
@@ -14097,10 +14107,10 @@
         <v>43952</v>
       </c>
       <c r="I11" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J11" s="73" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K11" s="73" t="s">
         <v>63</v>
@@ -14108,16 +14118,16 @@
     </row>
     <row r="12" spans="1:12" ht="66" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D12" s="71" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="E12" s="71" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="F12" s="36" t="s">
         <v>105</v>
@@ -14126,10 +14136,10 @@
         <v>43952</v>
       </c>
       <c r="I12" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J12" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K12" t="s">
         <v>68</v>
@@ -14137,16 +14147,16 @@
     </row>
     <row r="13" spans="1:12" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D13" s="71" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="E13" s="71" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>105</v>
@@ -14155,10 +14165,10 @@
         <v>43952</v>
       </c>
       <c r="I13" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J13" s="73" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K13" s="73" t="s">
         <v>68</v>
@@ -14166,16 +14176,16 @@
     </row>
     <row r="14" spans="1:12" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="71" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E14" s="71" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="F14" s="36" t="s">
         <v>105</v>
@@ -14184,10 +14194,10 @@
         <v>43952</v>
       </c>
       <c r="I14" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J14" s="73" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K14" s="73" t="s">
         <v>68</v>
@@ -14195,16 +14205,16 @@
     </row>
     <row r="15" spans="1:12" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="15" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D15" s="71" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="F15" s="36" t="s">
         <v>105</v>
@@ -14213,10 +14223,10 @@
         <v>43952</v>
       </c>
       <c r="I15" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J15" s="73" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K15" s="73" t="s">
         <v>68</v>
@@ -14224,16 +14234,16 @@
     </row>
     <row r="16" spans="1:12" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D16" s="71" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="F16" s="36" t="s">
         <v>105</v>
@@ -14242,10 +14252,10 @@
         <v>43952</v>
       </c>
       <c r="I16" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J16" s="73" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K16" s="73" t="s">
         <v>68</v>
@@ -14253,16 +14263,16 @@
     </row>
     <row r="17" spans="2:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="71" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="F17" s="36" t="s">
         <v>105</v>
@@ -14271,10 +14281,10 @@
         <v>43952</v>
       </c>
       <c r="I17" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J17" s="73" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K17" s="73" t="s">
         <v>68</v>
@@ -14282,16 +14292,16 @@
     </row>
     <row r="18" spans="2:11" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D18" s="71" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="E18" s="71" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="F18" s="36" t="s">
         <v>105</v>
@@ -14300,10 +14310,10 @@
         <v>43952</v>
       </c>
       <c r="I18" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J18" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K18" t="s">
         <v>63</v>
@@ -14311,16 +14321,16 @@
     </row>
     <row r="19" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="15" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D19" s="71" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="E19" s="71" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="F19" s="36" t="s">
         <v>105</v>
@@ -14329,10 +14339,10 @@
         <v>44378</v>
       </c>
       <c r="I19" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J19" s="73" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K19" s="73" t="s">
         <v>63</v>
@@ -14340,16 +14350,16 @@
     </row>
     <row r="20" spans="2:11" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="15" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D20" s="71" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E20" s="71" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="F20" s="36" t="s">
         <v>105</v>
@@ -14358,7 +14368,7 @@
         <v>44378</v>
       </c>
       <c r="I20" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J20" t="s">
         <v>69</v>
@@ -14369,16 +14379,16 @@
     </row>
     <row r="21" spans="2:11" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="15" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="71" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E21" s="71" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="F21" s="36" t="s">
         <v>105</v>
@@ -14387,7 +14397,7 @@
         <v>44378</v>
       </c>
       <c r="I21" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J21" s="73" t="s">
         <v>69</v>
@@ -14398,16 +14408,16 @@
     </row>
     <row r="22" spans="2:11" ht="108.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="15" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="71" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="E22" s="71" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="F22" s="36" t="s">
         <v>105</v>
@@ -14416,10 +14426,10 @@
         <v>44378</v>
       </c>
       <c r="I22" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J22" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K22" t="s">
         <v>66</v>
@@ -14427,16 +14437,16 @@
     </row>
     <row r="23" spans="2:11" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D23" s="71" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E23" s="71" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="F23" s="36" t="s">
         <v>105</v>
@@ -14445,10 +14455,10 @@
         <v>44378</v>
       </c>
       <c r="I23" s="73" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="J23" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="K23" t="s">
         <v>63</v>
@@ -15458,13 +15468,13 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="19"/>
-      <c r="B1" s="78" t="s">
+      <c r="B1" s="80" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="20"/>
       <c r="H1" s="20"/>
       <c r="I1" s="20"/>
@@ -15568,19 +15578,19 @@
         <f>'Function list'!C2</f>
         <v>Trang chủ</v>
       </c>
-      <c r="C4" s="85">
+      <c r="C4" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B4,'Bug Report'!$K$2:$K$23,C$3)</f>
         <v>0</v>
       </c>
-      <c r="D4" s="85">
+      <c r="D4" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B4,'Bug Report'!$K$2:$K$23,D$3)</f>
         <v>0</v>
       </c>
-      <c r="E4" s="85">
+      <c r="E4" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B4,'Bug Report'!$K$2:$K$23,E$3)</f>
         <v>0</v>
       </c>
-      <c r="F4" s="85">
+      <c r="F4" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B4,'Bug Report'!$K$2:$K$23,F$3)</f>
         <v>1</v>
       </c>
@@ -15588,7 +15598,7 @@
         <f>SUM(C4:F4)</f>
         <v>1</v>
       </c>
-      <c r="H4" s="85">
+      <c r="H4" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B4,'Bug Report'!$I$2:$I$23,H$3)</f>
         <v>0</v>
       </c>
@@ -15622,19 +15632,19 @@
         <f>'Function list'!C3</f>
         <v>Danh sách sản phẩm</v>
       </c>
-      <c r="C5" s="85">
+      <c r="C5" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B5,'Bug Report'!$K$2:$K$23,C$3)</f>
         <v>0</v>
       </c>
-      <c r="D5" s="85">
+      <c r="D5" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B5,'Bug Report'!$K$2:$K$23,D$3)</f>
         <v>0</v>
       </c>
-      <c r="E5" s="85">
+      <c r="E5" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B5,'Bug Report'!$K$2:$K$23,E$3)</f>
         <v>4</v>
       </c>
-      <c r="F5" s="85">
+      <c r="F5" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B5,'Bug Report'!$K$2:$K$23,F$3)</f>
         <v>1</v>
       </c>
@@ -15642,7 +15652,7 @@
         <f>SUM(C5:F5)</f>
         <v>5</v>
       </c>
-      <c r="H5" s="85">
+      <c r="H5" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B5,'Bug Report'!$I$2:$I$23,H$3)</f>
         <v>0</v>
       </c>
@@ -15672,23 +15682,23 @@
       <c r="A6" s="23">
         <v>3</v>
       </c>
-      <c r="B6" s="86" t="str">
+      <c r="B6" s="75" t="str">
         <f>'Function list'!C4</f>
         <v>Chi tiết sản phẩm</v>
       </c>
-      <c r="C6" s="85">
+      <c r="C6" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B6,'Bug Report'!$K$2:$K$23,C$3)</f>
         <v>0</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B6,'Bug Report'!$K$2:$K$23,D$3)</f>
         <v>0</v>
       </c>
-      <c r="E6" s="85">
+      <c r="E6" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B6,'Bug Report'!$K$2:$K$23,E$3)</f>
         <v>0</v>
       </c>
-      <c r="F6" s="85">
+      <c r="F6" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B6,'Bug Report'!$K$2:$K$23,F$3)</f>
         <v>2</v>
       </c>
@@ -15696,7 +15706,7 @@
         <f t="shared" ref="G6:G8" si="0">SUM(C6:F6)</f>
         <v>2</v>
       </c>
-      <c r="H6" s="85">
+      <c r="H6" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B6,'Bug Report'!$I$2:$I$23,H$3)</f>
         <v>0</v>
       </c>
@@ -15726,23 +15736,23 @@
       <c r="A7" s="23">
         <v>4</v>
       </c>
-      <c r="B7" s="86" t="str">
+      <c r="B7" s="75" t="str">
         <f>'Function list'!C5</f>
         <v>Bình luận</v>
       </c>
-      <c r="C7" s="85">
+      <c r="C7" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B7,'Bug Report'!$K$2:$K$23,C$3)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="85">
+      <c r="D7" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B7,'Bug Report'!$K$2:$K$23,D$3)</f>
         <v>6</v>
       </c>
-      <c r="E7" s="85">
+      <c r="E7" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B7,'Bug Report'!$K$2:$K$23,E$3)</f>
         <v>0</v>
       </c>
-      <c r="F7" s="85">
+      <c r="F7" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B7,'Bug Report'!$K$2:$K$23,F$3)</f>
         <v>3</v>
       </c>
@@ -15750,7 +15760,7 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="H7" s="85">
+      <c r="H7" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B7,'Bug Report'!$I$2:$I$23,H$3)</f>
         <v>0</v>
       </c>
@@ -15780,23 +15790,23 @@
       <c r="A8" s="23">
         <v>5</v>
       </c>
-      <c r="B8" s="86" t="str">
+      <c r="B8" s="75" t="str">
         <f>'Function list'!C6</f>
         <v>Tìm kiếm</v>
       </c>
-      <c r="C8" s="85">
+      <c r="C8" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B8,'Bug Report'!$K$2:$K$23,C$3)</f>
         <v>1</v>
       </c>
-      <c r="D8" s="85">
+      <c r="D8" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B8,'Bug Report'!$K$2:$K$23,D$3)</f>
         <v>0</v>
       </c>
-      <c r="E8" s="85">
+      <c r="E8" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B8,'Bug Report'!$K$2:$K$23,E$3)</f>
         <v>2</v>
       </c>
-      <c r="F8" s="85">
+      <c r="F8" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B8,'Bug Report'!$K$2:$K$23,F$3)</f>
         <v>2</v>
       </c>
@@ -15804,7 +15814,7 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="H8" s="85">
+      <c r="H8" s="74">
         <f>COUNTIFS('Bug Report'!$C$2:$C$23,'Defect Serverity Distribution'!$B8,'Bug Report'!$I$2:$I$23,H$3)</f>
         <v>0</v>
       </c>
@@ -15836,31 +15846,31 @@
         <v>70</v>
       </c>
       <c r="C9" s="21">
-        <f>SUM(C4:C8)</f>
+        <f t="shared" ref="C9:I9" si="2">SUM(C4:C8)</f>
         <v>1</v>
       </c>
       <c r="D9" s="21">
-        <f>SUM(D4:D8)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="E9" s="21">
-        <f>SUM(E4:E8)</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="F9" s="21">
-        <f>SUM(F4:F8)</f>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="G9" s="21">
-        <f>SUM(G4:G8)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="H9" s="21">
-        <f>SUM(H4:H8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I9" s="21">
-        <f>SUM(I4:I8)</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="J9" s="28"/>
@@ -43726,8 +43736,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -43741,76 +43751,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="H1" s="75"/>
-      <c r="I1" s="75"/>
-      <c r="J1" s="75"/>
-      <c r="K1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="81" t="s">
+      <c r="B2" s="78"/>
+      <c r="C2" s="83" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="75"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="80" t="s">
+      <c r="D2" s="77"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="82" t="s">
         <v>75</v>
       </c>
-      <c r="G2" s="76"/>
-      <c r="H2" s="81" t="s">
+      <c r="G2" s="78"/>
+      <c r="H2" s="83" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="76"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
+      <c r="K2" s="78"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A3" s="80" t="s">
+      <c r="A3" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="B3" s="76"/>
-      <c r="C3" s="81" t="s">
+      <c r="B3" s="78"/>
+      <c r="C3" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="80" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="76"/>
-      <c r="H3" s="81" t="s">
+      <c r="G3" s="78"/>
+      <c r="H3" s="83" t="s">
         <v>80</v>
       </c>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="76"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="1:26" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="82" t="s">
+      <c r="A4" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="75"/>
-      <c r="I4" s="75"/>
-      <c r="J4" s="75"/>
-      <c r="K4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="78"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
@@ -43929,11 +43939,11 @@
       </c>
       <c r="D9" s="2">
         <f>SUM('Test summary report'!$E9:$G9)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="2">
         <f>COUNTIFS('Test cases'!$C$3:$C$102,'Test summary report'!$B9,'Test cases'!$J$3:$J$102,'Test summary report'!$E$8)</f>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="65">
         <f>COUNTIFS('Test cases'!$C$3:$C$102,'Test summary report'!$B9,'Test cases'!$J$3:$J$102,'Test summary report'!$F$8)</f>
@@ -43953,7 +43963,7 @@
       </c>
       <c r="J9" s="2">
         <f>SUM('Test summary report'!$E9:$I9)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K9" s="41">
         <f>'Test summary report'!$D9/'Test summary report'!$J9</f>
@@ -43974,11 +43984,11 @@
       </c>
       <c r="D10" s="2">
         <f>SUM('Test summary report'!$E10:$G10)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10" s="11">
         <f>COUNTIFS('Test cases'!$C$3:$C$102,'Test summary report'!$B10,'Test cases'!$J$3:$J$102,'Test summary report'!$E$8)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F10" s="65">
         <f>COUNTIFS('Test cases'!$C$3:$C$102,'Test summary report'!$B10,'Test cases'!$J$3:$J$102,'Test summary report'!$F$8)</f>
@@ -43998,7 +44008,7 @@
       </c>
       <c r="J10" s="11">
         <f>SUM('Test summary report'!$E10:$I10)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K10" s="41">
         <f>'Test summary report'!$D10/'Test summary report'!$J10</f>
@@ -44019,11 +44029,11 @@
       </c>
       <c r="D11" s="11">
         <f>SUM('Test summary report'!$E11:$G11)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E11" s="11">
         <f>COUNTIFS('Test cases'!$C$3:$C$102,'Test summary report'!$B11,'Test cases'!$J$3:$J$102,'Test summary report'!$E$8)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F11" s="65">
         <f>COUNTIFS('Test cases'!$C$3:$C$102,'Test summary report'!$B11,'Test cases'!$J$3:$J$102,'Test summary report'!$F$8)</f>
@@ -44043,7 +44053,7 @@
       </c>
       <c r="J11" s="11">
         <f>SUM('Test summary report'!$E11:$I11)</f>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K11" s="41">
         <f>'Test summary report'!$D11/'Test summary report'!$J11</f>
@@ -44064,11 +44074,11 @@
       </c>
       <c r="D12" s="11">
         <f>SUM('Test summary report'!$E12:$G12)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E12" s="11">
         <f>COUNTIFS('Test cases'!$C$3:$C$102,'Test summary report'!$B12,'Test cases'!$J$3:$J$102,'Test summary report'!$E$8)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F12" s="65">
         <f>COUNTIFS('Test cases'!$C$3:$C$102,'Test summary report'!$B12,'Test cases'!$J$3:$J$102,'Test summary report'!$F$8)</f>
@@ -44088,7 +44098,7 @@
       </c>
       <c r="J12" s="11">
         <f>SUM('Test summary report'!$E12:$I12)</f>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K12" s="41">
         <f>'Test summary report'!$D12/'Test summary report'!$J12</f>
@@ -44109,11 +44119,11 @@
       </c>
       <c r="D13" s="11">
         <f>SUM('Test summary report'!$E13:$G13)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E13" s="11">
         <f>COUNTIFS('Test cases'!$C$3:$C$102,'Test summary report'!$B13,'Test cases'!$J$3:$J$102,'Test summary report'!$E$8)</f>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F13" s="65">
         <f>COUNTIFS('Test cases'!$C$3:$C$102,'Test summary report'!$B13,'Test cases'!$J$3:$J$102,'Test summary report'!$F$8)</f>
@@ -44133,7 +44143,7 @@
       </c>
       <c r="J13" s="11">
         <f>SUM('Test summary report'!$E13:$I13)</f>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="K13" s="41">
         <f>'Test summary report'!$D13/'Test summary report'!$J13</f>
@@ -44147,31 +44157,31 @@
         <v>70</v>
       </c>
       <c r="D14" s="42">
-        <f>SUM(D9:D13)</f>
+        <f t="shared" ref="D14:J14" si="0">SUM(D9:D13)</f>
         <v>100</v>
       </c>
       <c r="E14" s="42">
-        <f>SUM(E9:E13)</f>
+        <f t="shared" si="0"/>
         <v>65</v>
       </c>
       <c r="F14" s="42">
-        <f>SUM(F9:F13)</f>
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="G14" s="42">
-        <f>SUM(G9:G13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="42">
-        <f>SUM(H9:H13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I14" s="42">
-        <f>SUM(I9:I13)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="J14" s="42">
-        <f>SUM(J9:J13)</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="K14" s="43">
